--- a/assets/sp_cetesb_infoaguas/excel/NOSG02500.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/NOSG02500.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,22 +506,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>25.00000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -536,18 +532,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.00600000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -562,17 +558,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>82.00000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -592,17 +584,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>1.60000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -622,18 +610,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.19000000</t>
+          <t>3.52000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -648,17 +636,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -678,18 +662,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>53.00000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -704,17 +688,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>3.28000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -734,18 +714,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>35.30000000</t>
+          <t>1.20000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -760,17 +740,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>0.00600000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -790,18 +766,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>124.00000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -816,7 +792,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -826,7 +802,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -846,7 +822,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -872,7 +848,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
+          <t>Cobre Total</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -882,7 +858,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -902,17 +878,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>1.95000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -932,18 +904,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -958,13 +930,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.28000000</t>
+          <t>13.20000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -984,13 +956,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.12000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1010,13 +986,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.17000000</t>
+          <t>6.00000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1036,22 +1012,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>35.30000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1066,13 +1038,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.95000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1092,13 +1068,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13.20000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1118,18 +1098,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.52000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1144,13 +1128,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.00000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1170,18 +1158,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.78000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1196,18 +1188,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>124.00000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1222,18 +1218,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25.00000000</t>
+          <t>0.19000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1248,13 +1244,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.73000000</t>
+          <t>1.22000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1274,13 +1270,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>Ferro Dissolvido</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.95000000</t>
+          <t>0.95000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1300,18 +1296,18 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>1.78000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1326,13 +1322,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>82.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1352,18 +1352,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>38.00000000</t>
+          <t>3.17000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1408,13 +1408,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>53.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1434,18 +1438,18 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.54000000</t>
+          <t>38.00000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1464,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>3.73000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1490,13 +1490,13 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.20000000</t>
+          <t>3.54000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1516,18 +1516,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.22000000</t>
+          <t>6.53000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1542,18 +1542,18 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6.53000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1568,13 +1568,13 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.60000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1594,18 +1594,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.12000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1646,13 +1646,13 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.25000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1672,18 +1672,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>31.30000000</t>
+          <t>22.20000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1698,13 +1698,13 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.43000000</t>
+          <t>1.57000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1724,18 +1724,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.50000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1750,17 +1754,13 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.14000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1780,18 +1780,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.78000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1806,18 +1810,18 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1832,18 +1836,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7.55000000</t>
+          <t>0.43000000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1858,13 +1862,13 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>8.10000000</t>
+          <t>0.12000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1884,18 +1888,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>27.70000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1910,13 +1918,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.11000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1936,18 +1948,18 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>55.40000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1974,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1972,7 +1984,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1992,7 +2004,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
+          <t>Cádmio Total</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2002,7 +2014,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2022,7 +2034,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Chumbo Total</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2032,7 +2044,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2052,7 +2064,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Níquel Total</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2062,7 +2074,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2082,7 +2094,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Crômio Total</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2092,7 +2104,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2112,13 +2124,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sódio</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2.22000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2138,18 +2154,18 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.14000000</t>
+          <t>7.55000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2164,18 +2180,18 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>19.00000000</t>
+          <t>8.10000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2190,13 +2206,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.33000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2216,17 +2236,13 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>5.39000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2246,13 +2262,13 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.57000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2272,17 +2288,13 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>2.11000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2302,22 +2314,18 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>27.70000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2332,18 +2340,18 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.12000000</t>
+          <t>31.30000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2358,13 +2366,13 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2384,18 +2392,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5.39000000</t>
+          <t>0.78000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2418,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2420,7 +2428,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2440,13 +2448,13 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Ferro Dissolvido</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2.63000000</t>
+          <t>0.25000000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2466,17 +2474,13 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>1.65000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2496,13 +2500,13 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>2.63000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2522,7 +2526,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
+          <t>Cobre Total</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2532,7 +2536,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.00900000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2552,18 +2556,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4.28000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2578,22 +2586,18 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>4.28000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2608,18 +2612,18 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2638,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2644,7 +2648,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2664,17 +2668,13 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>1.33000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2694,18 +2694,18 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>22.20000000</t>
+          <t>19.00000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2720,13 +2720,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.65000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2746,7 +2750,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
+          <t>Cobre Dissolvido</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2756,7 +2760,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>0.00900000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2776,18 +2780,18 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>55.40000000</t>
+          <t>2.22000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2802,22 +2806,18 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>3.50000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2832,13 +2832,13 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.08000000</t>
+          <t>19.10000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2858,18 +2858,18 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4.54000000</t>
+          <t>4.67000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2884,17 +2884,13 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>1.46000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -2914,17 +2910,13 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>1.79000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -2944,13 +2936,13 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.19000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -2970,13 +2962,13 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.46000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -2996,13 +2988,13 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Ferro Dissolvido</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>6.30000000</t>
+          <t>0.54000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3022,13 +3014,13 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.76000000</t>
+          <t>0.92000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3048,13 +3040,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>19.10000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3074,18 +3070,18 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.83000000</t>
+          <t>140.00000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3096,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3110,7 +3106,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3130,7 +3126,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3140,7 +3136,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3160,22 +3156,18 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>1.63000000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3190,13 +3182,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3.25000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3216,17 +3212,13 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>6.30000000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3246,18 +3238,18 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>29.50000000</t>
+          <t>0.05900000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3272,18 +3264,18 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>29.50000000</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3298,18 +3290,18 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>30.40000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3324,13 +3316,13 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.29000000</t>
+          <t>3.25000000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3350,18 +3342,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>6.60000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3376,17 +3372,13 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>1.08000000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3406,17 +3398,13 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>0.19000000</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3436,18 +3424,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3462,18 +3454,18 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1.76000000</t>
+          <t>4.54000000</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3488,22 +3480,18 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0.00900000</t>
+          <t>6.60000000</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3518,13 +3506,13 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.05900000</t>
+          <t>1.76000000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3544,13 +3532,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.79000000</t>
+          <t>0.00900000</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3570,17 +3562,13 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3600,13 +3588,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0.54000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -3626,13 +3618,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0.92000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3652,18 +3648,18 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>50.20000000</t>
+          <t>0.83000000</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3674,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Níquel Total</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3688,7 +3684,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -3708,13 +3704,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -3734,13 +3734,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4.67000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3760,7 +3764,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3770,7 +3774,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -3790,18 +3794,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1.63000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3816,13 +3824,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -3842,22 +3854,18 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -3872,22 +3880,18 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>30.40000000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3902,22 +3906,18 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>50.20000000</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -3958,18 +3958,18 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>140.00000000</t>
+          <t>1.76000000</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3984,18 +3984,18 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>7.10000000</t>
+          <t>0.29000000</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4010,18 +4010,18 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>64.00000000</t>
+          <t>6.20000000</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -4036,18 +4036,18 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3.86000000</t>
+          <t>7.51000000</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -4062,13 +4062,13 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>0.07000000</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4088,13 +4088,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>3.48000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4114,22 +4118,18 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>31.20000000</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4144,13 +4144,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>6.01000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4170,7 +4174,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4180,7 +4184,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4200,18 +4204,18 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>31.20000000</t>
+          <t>2.18000000</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4226,13 +4230,13 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1.17000000</t>
+          <t>64.00000000</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4252,22 +4256,18 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0.48000000</t>
+          <t>0.08000000</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4282,18 +4282,18 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>6.20000000</t>
+          <t>2.22000000</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4308,17 +4308,13 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>1.86000000</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4338,7 +4334,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4348,7 +4344,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -4368,17 +4364,13 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>1.37000000</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -4398,18 +4390,18 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>7.60000000</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4424,18 +4416,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>31.70000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4450,13 +4446,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0.49000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4506,17 +4506,13 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>0.14000000</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -4536,22 +4532,18 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>31.70000000</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4558,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4576,7 +4568,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -4596,17 +4588,13 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>0.12000000</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -4626,7 +4614,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4636,12 +4624,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0.00900000</t>
+          <t>0.48000000</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4656,18 +4644,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4682,18 +4674,18 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0.14000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4734,13 +4726,13 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0.08000000</t>
+          <t>6.01000000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -4760,17 +4752,13 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>3.86000000</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -4790,18 +4778,18 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2.94000000</t>
+          <t>1.98000000</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4816,18 +4804,18 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>0.12000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -4842,18 +4830,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>60.00000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4868,13 +4860,17 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2.18000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -4894,13 +4890,17 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>1.98000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -4920,13 +4920,13 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>7.60000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -4946,22 +4946,18 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>2.94000000</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4976,13 +4972,17 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1.37000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5002,18 +5002,18 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>60.00000000</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -5028,17 +5028,13 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>1.17000000</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5058,13 +5054,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>0.07000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5084,18 +5084,18 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>1.86000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5110,13 +5110,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Sódio</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2.22000000</t>
+          <t>0.00900000</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5136,17 +5140,13 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.49000000</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5166,16 +5166,3570 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>7.51000000</t>
+          <t>3.48000000</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>65.90000000</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>8.40000000</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>6.00000000</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0.22000000</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2.31000000</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1.93000000</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>3.47000000</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>0.07700000</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1.20000000</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>7.40000000</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>0.30000000</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>0.20000000</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>0.30000000</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1.80000000</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>23.10000000</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>1.59000000</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>24.00000000</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>44334.50347222222</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>24.90000000</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>21.10000000</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1.99000000</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>0.00900000</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>17.50000000</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>74.00000000</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>1.89000000</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>1.34000000</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>0.19000000</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>1.30000000</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>3.62000000</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2.41000000</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>0.04000000</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1.97000000</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>78.00000000</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2.43000000</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>0.48000000</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>0.00080000</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>0.24000000</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>5.82000000</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>65.40000000</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>0.16000000</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>7.87000000</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>24.50000000</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>9.80000000</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>0.07500000</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>44411.5</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>24.40000000</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2.14000000</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>168.00000000</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>4.90000000</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>0.85000000</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>1.68000000</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>22.50000000</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>26.80000000</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>6.50000000</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>2.14000000</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>0.00900000</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>1.87000000</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>63.30000000</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2.50000000</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>1.74000000</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>0.17000000</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>0.00080000</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>0.50000000</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>99.00000000</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>5.49000000</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>113.00000000</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>3.14000000</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>NOSG02500</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>44509.375</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>6.91000000</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
